--- a/members.xlsx
+++ b/members.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>08r073750475</t>
+  </si>
+  <si>
+    <t>cccc</t>
   </si>
 </sst>
 </file>
@@ -368,15 +371,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.296875" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -399,6 +403,17 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>123345345</v>
       </c>
     </row>
   </sheetData>
